--- a/drishti-tools/upload_forms/examples/10 Training data.xlsx
+++ b/drishti-tools/upload_forms/examples/10 Training data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="EC register" sheetId="8" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="350">
   <si>
     <t>Ashwini</t>
   </si>
@@ -2159,81 +2159,6 @@
     <t>Saanvi</t>
   </si>
   <si>
-    <t>BCG</t>
-  </si>
-  <si>
-    <t>Hep B 0</t>
-  </si>
-  <si>
-    <t>OPV 0</t>
-  </si>
-  <si>
-    <t>OPV 1</t>
-  </si>
-  <si>
-    <t>OPV 2</t>
-  </si>
-  <si>
-    <t>OPV 3</t>
-  </si>
-  <si>
-    <t>Pentavalent 1</t>
-  </si>
-  <si>
-    <t>Pentavalent 2</t>
-  </si>
-  <si>
-    <t>Pentavalent 3</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>DPT Booster 1</t>
-  </si>
-  <si>
-    <t>DPT Booster 2</t>
-  </si>
-  <si>
-    <t>Vit A 1</t>
-  </si>
-  <si>
-    <t>Vit A 2</t>
-  </si>
-  <si>
-    <t>Vit A 3</t>
-  </si>
-  <si>
-    <t>Vit A 4</t>
-  </si>
-  <si>
-    <t>Vit A 5</t>
-  </si>
-  <si>
-    <t>Vit A 6</t>
-  </si>
-  <si>
-    <t>Vit A 7</t>
-  </si>
-  <si>
-    <t>Vit A 8</t>
-  </si>
-  <si>
-    <t>Vit A 9</t>
-  </si>
-  <si>
-    <t>OPV Booster</t>
-  </si>
-  <si>
-    <t>17/02/2013</t>
-  </si>
-  <si>
-    <t>17/03/2013</t>
-  </si>
-  <si>
-    <t>14/04/013</t>
-  </si>
-  <si>
     <t>TT Injection place</t>
   </si>
   <si>
@@ -2247,6 +2172,24 @@
   </si>
   <si>
     <t>Woman survived child birth</t>
+  </si>
+  <si>
+    <t>Immunization</t>
+  </si>
+  <si>
+    <t>Immunization date</t>
+  </si>
+  <si>
+    <t>opv_0</t>
+  </si>
+  <si>
+    <t>opv_1</t>
+  </si>
+  <si>
+    <t>Vitamin A dose</t>
+  </si>
+  <si>
+    <t>Vitamin A date</t>
   </si>
 </sst>
 </file>
@@ -2495,11 +2438,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="228">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2852,7 +2805,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="228">
+  <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
@@ -2965,6 +2918,11 @@
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -3077,6 +3035,11 @@
     <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet2" xfId="2"/>
     <cellStyle name="Normal_Sheet3" xfId="1"/>
@@ -10167,10 +10130,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10178,12 +10141,11 @@
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1">
+    <row r="1" spans="1:9" s="10" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -10194,46 +10156,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="J1" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="17" t="s">
         <v>141</v>
       </c>
@@ -10243,21 +10172,18 @@
       <c r="C2" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="D2" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>316</v>
+      </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
       <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="17" t="s">
         <v>119</v>
       </c>
@@ -10268,26 +10194,17 @@
         <v>29230030071</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>271</v>
-      </c>
+      <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -10298,26 +10215,17 @@
         <v>29230030071</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>269</v>
-      </c>
+      <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -10328,26 +10236,17 @@
         <v>29230030068</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>284</v>
-      </c>
+      <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -10358,26 +10257,17 @@
         <v>59</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>285</v>
-      </c>
+      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -10388,26 +10278,17 @@
         <v>59</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>267</v>
-      </c>
+      <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
@@ -10418,38 +10299,17 @@
         <v>59</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -10459,21 +10319,18 @@
       <c r="C9" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>271</v>
+      </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="17" t="s">
         <v>121</v>
       </c>
@@ -10483,21 +10340,18 @@
       <c r="C10" s="35">
         <v>29230030071</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>269</v>
+      </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="17" t="s">
         <v>133</v>
       </c>
@@ -10507,21 +10361,18 @@
       <c r="C11" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>284</v>
+      </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="17" t="s">
         <v>173</v>
       </c>
@@ -10531,21 +10382,18 @@
       <c r="C12" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="27" t="s">
         <v>180</v>
       </c>
@@ -10555,21 +10403,18 @@
       <c r="C13" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>267</v>
+      </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="27" t="s">
         <v>216</v>
       </c>
@@ -10579,21 +10424,18 @@
       <c r="C14" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>316</v>
+      </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
         <v>99</v>
       </c>
@@ -10603,21 +10445,18 @@
       <c r="C15" s="35">
         <v>29230030068</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>271</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="17" t="s">
         <v>200</v>
       </c>
@@ -10627,21 +10466,18 @@
       <c r="C16" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>269</v>
+      </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="17" t="s">
         <v>203</v>
       </c>
@@ -10651,21 +10487,18 @@
       <c r="C17" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>284</v>
+      </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="17" t="s">
         <v>234</v>
       </c>
@@ -10675,21 +10508,18 @@
       <c r="C18" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>285</v>
+      </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="17" t="s">
         <v>185</v>
       </c>
@@ -10699,21 +10529,18 @@
       <c r="C19" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>267</v>
+      </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="1:16">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="27" t="s">
         <v>237</v>
       </c>
@@ -10723,21 +10550,18 @@
       <c r="C20" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>316</v>
+      </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="17" t="s">
         <v>145</v>
       </c>
@@ -10747,22 +10571,16 @@
       <c r="C21" s="35">
         <v>29230030070</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
+      <c r="D21" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10773,10 +10591,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10785,7 +10603,7 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="28">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -10796,34 +10614,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="17" t="s">
         <v>141</v>
       </c>
@@ -10833,8 +10630,14 @@
       <c r="C2" s="42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="17" t="s">
         <v>119</v>
       </c>
@@ -10844,8 +10647,14 @@
       <c r="C3" s="35">
         <v>29230030071</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -10855,8 +10664,14 @@
       <c r="C4" s="35">
         <v>29230030071</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>280</v>
       </c>
@@ -10866,8 +10681,14 @@
       <c r="C5" s="35">
         <v>29230030068</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -10877,8 +10698,14 @@
       <c r="C6" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -10888,8 +10715,14 @@
       <c r="C7" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="17" t="s">
         <v>61</v>
       </c>
@@ -10899,8 +10732,14 @@
       <c r="C8" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="17" t="s">
         <v>77</v>
       </c>
@@ -10910,8 +10749,14 @@
       <c r="C9" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="17" t="s">
         <v>121</v>
       </c>
@@ -10921,8 +10766,14 @@
       <c r="C10" s="35">
         <v>29230030071</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="17" t="s">
         <v>133</v>
       </c>
@@ -10932,8 +10783,14 @@
       <c r="C11" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="17" t="s">
         <v>173</v>
       </c>
@@ -10943,8 +10800,14 @@
       <c r="C12" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="27" t="s">
         <v>180</v>
       </c>
@@ -10954,8 +10817,14 @@
       <c r="C13" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="27" t="s">
         <v>216</v>
       </c>
@@ -10965,8 +10834,14 @@
       <c r="C14" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="27" t="s">
         <v>99</v>
       </c>
@@ -10976,8 +10851,14 @@
       <c r="C15" s="35">
         <v>29230030068</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="17" t="s">
         <v>200</v>
       </c>
@@ -10987,8 +10868,14 @@
       <c r="C16" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="17" t="s">
         <v>203</v>
       </c>
@@ -10998,8 +10885,14 @@
       <c r="C17" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="17" t="s">
         <v>234</v>
       </c>
@@ -11009,8 +10902,14 @@
       <c r="C18" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="17" t="s">
         <v>185</v>
       </c>
@@ -11020,8 +10919,14 @@
       <c r="C19" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="27" t="s">
         <v>237</v>
       </c>
@@ -11031,8 +10936,14 @@
       <c r="C20" s="35">
         <v>29230030070</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="17" t="s">
         <v>145</v>
       </c>
@@ -11042,9 +10953,16 @@
       <c r="C21" s="35">
         <v>29230030070</v>
       </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>316</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11058,7 +10976,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11564,7 +11482,7 @@
         <v>52</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11578,7 +11496,7 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E2" s="43">
         <v>41445</v>
@@ -11598,7 +11516,7 @@
         <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E3" s="43">
         <v>41446</v>
@@ -11618,7 +11536,7 @@
         <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E4" s="43">
         <v>41447</v>
@@ -11638,7 +11556,7 @@
         <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E5" s="43">
         <v>41448</v>
@@ -11658,7 +11576,7 @@
         <v>159</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E6" s="43">
         <v>41449</v>
@@ -11678,7 +11596,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E7" s="43">
         <v>41450</v>
@@ -11698,7 +11616,7 @@
         <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E8" s="43">
         <v>41451</v>
@@ -11718,7 +11636,7 @@
         <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E9" s="43">
         <v>41452</v>
@@ -11735,7 +11653,7 @@
         <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E10" s="43">
         <v>41453</v>
@@ -11755,7 +11673,7 @@
         <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="E11" s="43">
         <v>41454</v>
@@ -12256,8 +12174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12311,7 +12229,7 @@
         <v>249</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="O1" s="30" t="s">
         <v>248</v>
@@ -12724,7 +12642,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/drishti-tools/upload_forms/examples/10 Training data.xlsx
+++ b/drishti-tools/upload_forms/examples/10 Training data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="16060" activeTab="6"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="16060" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="EC register" sheetId="8" r:id="rId1"/>
@@ -2304,7 +2304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="1">
+    <comment ref="P10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2329,7 +2329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="1">
+    <comment ref="P16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2409,11 +2409,539 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+today - 2 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 15 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 4 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 24 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 12 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 17 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 8 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 today - 1 week</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="F10" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today's date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 4 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 20 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 10 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 30 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 20 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 5 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 10 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 1 week</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 26 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 16 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 6 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 30 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 20 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 10 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2437,31 +2965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 10 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F5" authorId="1">
+    <comment ref="F26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2485,103 +2989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 15 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 4 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 20 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 10 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="1">
+    <comment ref="F27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2602,414 +3010,6 @@
           </rPr>
           <t xml:space="preserve">
 today - 2 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 17 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today's date</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 8 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 1 week</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 4 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 30 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 20 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F18" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 5 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F19" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 30 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 20 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 10 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 2 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F23" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 24 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 12 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F25" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 26 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F26" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 16 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F27" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 6 weeks</t>
         </r>
       </text>
     </comment>
@@ -3188,7 +3188,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 2 weeks</t>
+today - 17 weeks</t>
         </r>
       </text>
     </comment>
@@ -3212,7 +3212,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 17 weeks</t>
+today - 10 weeks</t>
         </r>
       </text>
     </comment>
@@ -3236,7 +3236,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 10 weeks</t>
+today's date</t>
         </r>
       </text>
     </comment>
@@ -3260,7 +3260,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today's date</t>
+today - 8 weeks</t>
         </r>
       </text>
     </comment>
@@ -3284,7 +3284,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 8 weeks</t>
+today - 1 week</t>
         </r>
       </text>
     </comment>
@@ -3308,7 +3308,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 1 week</t>
+today - 4 weeks</t>
         </r>
       </text>
     </comment>
@@ -3332,7 +3332,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 4 weeks</t>
+today - 30 weeks</t>
         </r>
       </text>
     </comment>
@@ -3356,11 +3356,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+today - 20 weeks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 today - 30 weeks</t>
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="1">
+    <comment ref="F16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3384,30 +3408,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 30 weeks</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F17" authorId="1">
       <text>
         <r>
@@ -3428,7 +3428,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 20 weeks</t>
+today - 12 weeks</t>
         </r>
       </text>
     </comment>
@@ -3452,35 +3452,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-today - 12 weeks</t>
+today - 16 weeks</t>
         </r>
       </text>
     </comment>
     <comment ref="F19" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Carolyn Gulas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-today - 16 weeks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -4666,7 +4642,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-In DD/MM/YYYY format (i.e., 15/05/2013)</t>
+In DD/MM/YYYY format (i.e., 15/05/2013)
+Copy from Delivery date column
+</t>
         </r>
       </text>
     </comment>
@@ -5477,6 +5455,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 1 month</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F2" authorId="0">
       <text>
         <r>
@@ -5549,6 +5551,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 2 months</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E5" authorId="0">
       <text>
         <r>
@@ -5741,6 +5767,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 6 weeks</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -5837,6 +5887,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 5 days</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E15" authorId="0">
       <text>
         <r>
@@ -5906,6 +5980,30 @@
           </rPr>
           <t xml:space="preserve">
 Delivery date + 3 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 1 week</t>
         </r>
       </text>
     </comment>
@@ -5979,6 +6077,30 @@
           </rPr>
           <t xml:space="preserve">
 Delivery date + 3 days</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carolyn Gulas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+today - 2 weeks</t>
         </r>
       </text>
     </comment>
@@ -6084,7 +6206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="452">
   <si>
     <t>Ashwini</t>
   </si>
@@ -6830,9 +6952,6 @@
     <t>Discharge date</t>
   </si>
   <si>
-    <t>30/08/2013</t>
-  </si>
-  <si>
     <t>15/08/2013</t>
   </si>
   <si>
@@ -6881,9 +7000,6 @@
     <t>Nikal</t>
   </si>
   <si>
-    <t>30/07/2013</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -6917,18 +7033,9 @@
     <t>Condoms</t>
   </si>
   <si>
-    <t>02/08/2013</t>
-  </si>
-  <si>
-    <t>31/07/2013</t>
-  </si>
-  <si>
     <t>sn</t>
   </si>
   <si>
-    <t>28/08/2013</t>
-  </si>
-  <si>
     <t>sub_center</t>
   </si>
   <si>
@@ -6944,9 +7051,6 @@
     <t>Birth date</t>
   </si>
   <si>
-    <t>24/02/2013</t>
-  </si>
-  <si>
     <t>Saanvi</t>
   </si>
   <si>
@@ -7016,42 +7120,9 @@
     <t>OA4</t>
   </si>
   <si>
-    <t>09/07/2013</t>
-  </si>
-  <si>
-    <t>18/06/2013</t>
-  </si>
-  <si>
-    <t>23/04/2013</t>
-  </si>
-  <si>
-    <t>26/03/2013</t>
-  </si>
-  <si>
-    <t>12/02/2013</t>
-  </si>
-  <si>
-    <t>25/06/2013</t>
-  </si>
-  <si>
-    <t>05/03/2013</t>
-  </si>
-  <si>
-    <t>21/05/2013</t>
-  </si>
-  <si>
-    <t>28/05/2013</t>
-  </si>
-  <si>
-    <t>11/12/2012</t>
-  </si>
-  <si>
     <t>04/12/2012</t>
   </si>
   <si>
-    <t>29/01/2013</t>
-  </si>
-  <si>
     <t>01/01/2013</t>
   </si>
   <si>
@@ -7073,21 +7144,6 @@
     <t>03/09/2013</t>
   </si>
   <si>
-    <t>27/08/2013</t>
-  </si>
-  <si>
-    <t>02/07/2013</t>
-  </si>
-  <si>
-    <t>14/05/2013</t>
-  </si>
-  <si>
-    <t>16/07/2013</t>
-  </si>
-  <si>
-    <t>12/03/2013</t>
-  </si>
-  <si>
     <t>tt1</t>
   </si>
   <si>
@@ -7100,33 +7156,9 @@
     <t>Severe_Anaemia</t>
   </si>
   <si>
-    <t>11/06/2013</t>
-  </si>
-  <si>
-    <t>23/07/2013</t>
-  </si>
-  <si>
     <t>19/03/2013</t>
   </si>
   <si>
-    <t>26/02/2013</t>
-  </si>
-  <si>
-    <t>02/04/2013</t>
-  </si>
-  <si>
-    <t>30/04/2013</t>
-  </si>
-  <si>
-    <t>07/05/2013</t>
-  </si>
-  <si>
-    <t>04/06/2013</t>
-  </si>
-  <si>
-    <t>09/04/2013</t>
-  </si>
-  <si>
     <t>Hema</t>
   </si>
   <si>
@@ -7139,9 +7171,6 @@
     <t>05/09/2013</t>
   </si>
   <si>
-    <t>09/09/2013</t>
-  </si>
-  <si>
     <t>11/08/2013</t>
   </si>
   <si>
@@ -7157,27 +7186,12 @@
     <t>13/07/2013</t>
   </si>
   <si>
-    <t>17/07/2013</t>
-  </si>
-  <si>
-    <t>24/07/2013</t>
-  </si>
-  <si>
     <t>07/08/2013</t>
   </si>
   <si>
-    <t>21/08/2013</t>
-  </si>
-  <si>
     <t>06/09/2013</t>
   </si>
   <si>
-    <t>08/09/2013</t>
-  </si>
-  <si>
-    <t>04/09/2013</t>
-  </si>
-  <si>
     <t>HOSA AGRAHARA</t>
   </si>
   <si>
@@ -7274,69 +7288,18 @@
     <t>Soumya</t>
   </si>
   <si>
-    <t>20/08/2013</t>
-  </si>
-  <si>
     <t>10/06/2013</t>
   </si>
   <si>
-    <t>10/05/2013</t>
-  </si>
-  <si>
-    <t>10/03/2012</t>
-  </si>
-  <si>
-    <t>10/05/2012</t>
-  </si>
-  <si>
     <t>10/06/2012</t>
   </si>
   <si>
     <t>10/07/2012</t>
   </si>
   <si>
-    <t>10/12/2012</t>
-  </si>
-  <si>
     <t>10/01/2013</t>
   </si>
   <si>
-    <t>03/04/2013</t>
-  </si>
-  <si>
-    <t>10/09/2011</t>
-  </si>
-  <si>
-    <t>27/10/2011</t>
-  </si>
-  <si>
-    <t>03/12/2011</t>
-  </si>
-  <si>
-    <t>10/01/2012</t>
-  </si>
-  <si>
-    <t>26/06/2012</t>
-  </si>
-  <si>
-    <t>03/08/2013</t>
-  </si>
-  <si>
-    <t>13/12/2012</t>
-  </si>
-  <si>
-    <t>03/02/2013</t>
-  </si>
-  <si>
-    <t>10/03/2013</t>
-  </si>
-  <si>
-    <t>12/04/2013</t>
-  </si>
-  <si>
-    <t>20/12/2012</t>
-  </si>
-  <si>
     <t>20/01/2013</t>
   </si>
   <si>
@@ -7433,7 +7396,172 @@
     <t>03/11/2012</t>
   </si>
   <si>
-    <t>03/10/2012</t>
+    <t>18/07/2013</t>
+  </si>
+  <si>
+    <t>28/02/2013</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>20/06/2013</t>
+  </si>
+  <si>
+    <t>27/06/2013</t>
+  </si>
+  <si>
+    <t>14/03/2013</t>
+  </si>
+  <si>
+    <t>23/05/2013</t>
+  </si>
+  <si>
+    <t>31/01/2013</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>25/07/2013</t>
+  </si>
+  <si>
+    <t>26/09/2013</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>29/08/2013</t>
+  </si>
+  <si>
+    <t>22/08/2013</t>
+  </si>
+  <si>
+    <t>18/04/2013</t>
+  </si>
+  <si>
+    <t>28/03/2013</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>30/05/2013</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>13/09/2013</t>
+  </si>
+  <si>
+    <t>17/09/2013</t>
+  </si>
+  <si>
+    <t>24/08/2013</t>
+  </si>
+  <si>
+    <t>31/08/2013</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>21/09/2013</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>27/09/2013</t>
+  </si>
+  <si>
+    <t>29/09/2013</t>
+  </si>
+  <si>
+    <t>19/09/2013</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>27/03/2013</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>26/11/2011</t>
+  </si>
+  <si>
+    <t>03/01/2012</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>27/07/2012</t>
+  </si>
+  <si>
+    <t>13/01/2013</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>20/03/2013</t>
   </si>
 </sst>
 </file>
@@ -7674,7 +7802,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="738">
+  <cellStyleXfs count="840">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -8413,8 +8541,110 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8584,8 +8814,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="738">
+  <cellStyles count="840">
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
@@ -8953,6 +9185,57 @@
     <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="735" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="839" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -9320,6 +9603,57 @@
     <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="734" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="838" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet2" xfId="2"/>
     <cellStyle name="Normal_Sheet3" xfId="1"/>
@@ -9627,7 +9961,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X73" sqref="X73"/>
+      <selection pane="bottomLeft" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9853,7 +10187,7 @@
         <v>67</v>
       </c>
       <c r="Y3" s="56" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -9920,7 +10254,7 @@
         <v>67</v>
       </c>
       <c r="Y4" s="56" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -9987,7 +10321,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="56" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -10054,7 +10388,7 @@
         <v>67</v>
       </c>
       <c r="Y6" s="56" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -10121,7 +10455,7 @@
         <v>67</v>
       </c>
       <c r="Y7" s="56" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -10148,7 +10482,7 @@
         <v>45</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="20">
@@ -10188,7 +10522,7 @@
         <v>67</v>
       </c>
       <c r="Y8" s="56" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -10253,7 +10587,7 @@
         <v>79</v>
       </c>
       <c r="Y9" s="56" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -10318,7 +10652,7 @@
         <v>79</v>
       </c>
       <c r="Y10" s="56" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -10385,7 +10719,7 @@
         <v>79</v>
       </c>
       <c r="Y11" s="56" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -10452,7 +10786,7 @@
         <v>88</v>
       </c>
       <c r="Y12" s="56" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -10519,7 +10853,7 @@
         <v>91</v>
       </c>
       <c r="Y13" s="56" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -10586,7 +10920,7 @@
         <v>91</v>
       </c>
       <c r="Y14" s="56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -10653,7 +10987,7 @@
         <v>91</v>
       </c>
       <c r="Y15" s="56" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -10720,7 +11054,7 @@
         <v>98</v>
       </c>
       <c r="Y16" s="56" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -10787,7 +11121,7 @@
         <v>88</v>
       </c>
       <c r="Y17" s="56" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -10854,7 +11188,7 @@
         <v>88</v>
       </c>
       <c r="Y18" s="56" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -10921,7 +11255,7 @@
         <v>104</v>
       </c>
       <c r="Y19" s="56" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -10988,7 +11322,7 @@
         <v>107</v>
       </c>
       <c r="Y20" s="56" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -11125,7 +11459,7 @@
         <v>88</v>
       </c>
       <c r="Y22" s="56" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -11171,7 +11505,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="58">
         <v>0</v>
@@ -11189,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="30" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="W23" s="11">
         <v>2</v>
@@ -11324,7 +11658,7 @@
         <v>107</v>
       </c>
       <c r="Y25" s="56" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -11455,7 +11789,7 @@
         <v>88</v>
       </c>
       <c r="Y27" s="56" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -11526,7 +11860,7 @@
         <v>126</v>
       </c>
       <c r="Y28" s="56" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -11597,7 +11931,7 @@
         <v>126</v>
       </c>
       <c r="Y29" s="56" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -11643,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="58">
         <v>0</v>
@@ -11668,7 +12002,7 @@
         <v>126</v>
       </c>
       <c r="Y30" s="56" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -11735,7 +12069,7 @@
         <v>131</v>
       </c>
       <c r="Y31" s="56" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -11799,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="V32" s="30" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="W32" s="11">
         <v>1</v>
@@ -11877,7 +12211,7 @@
         <v>98</v>
       </c>
       <c r="Y33" s="56" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -11944,7 +12278,7 @@
         <v>67</v>
       </c>
       <c r="Y34" s="56" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -12015,7 +12349,7 @@
         <v>91</v>
       </c>
       <c r="Y35" s="56" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -12082,7 +12416,7 @@
         <v>67</v>
       </c>
       <c r="Y36" s="56" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -12153,7 +12487,7 @@
         <v>126</v>
       </c>
       <c r="Y37" s="56" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -12285,7 +12619,7 @@
         <v>67</v>
       </c>
       <c r="Y39" s="56" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -12352,7 +12686,7 @@
         <v>67</v>
       </c>
       <c r="Y40" s="56" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -12419,7 +12753,7 @@
         <v>67</v>
       </c>
       <c r="Y41" s="56" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -12430,7 +12764,7 @@
         <v>147</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D42" s="11">
         <v>1</v>
@@ -12498,7 +12832,7 @@
         <v>147</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D43" s="11">
         <v>2</v>
@@ -12566,7 +12900,7 @@
         <v>147</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D44" s="11">
         <v>2</v>
@@ -12622,7 +12956,7 @@
         <v>88</v>
       </c>
       <c r="Y44" s="56" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -12633,7 +12967,7 @@
         <v>147</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D45" s="11">
         <v>3</v>
@@ -12702,7 +13036,7 @@
         <v>147</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D46" s="11">
         <v>4</v>
@@ -12769,7 +13103,7 @@
         <v>147</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D47" s="11">
         <v>5</v>
@@ -12833,7 +13167,7 @@
         <v>147</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D48" s="11">
         <v>6</v>
@@ -12899,7 +13233,7 @@
         <v>147</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D49" s="11">
         <v>7</v>
@@ -12934,7 +13268,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="Q49" s="20">
         <v>0</v>
@@ -12968,7 +13302,7 @@
         <v>147</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D50" s="11">
         <v>8</v>
@@ -13037,7 +13371,7 @@
         <v>147</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D51" s="11">
         <v>8</v>
@@ -13104,7 +13438,7 @@
         <v>147</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D52" s="11">
         <v>9</v>
@@ -13169,7 +13503,7 @@
         <v>147</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D53" s="11">
         <v>11</v>
@@ -13238,7 +13572,7 @@
         <v>147</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D54" s="11">
         <v>13</v>
@@ -13294,7 +13628,7 @@
         <v>88</v>
       </c>
       <c r="Y54" s="56" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -13305,7 +13639,7 @@
         <v>147</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D55" s="11">
         <v>13</v>
@@ -13366,7 +13700,7 @@
         <v>147</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D56" s="11">
         <v>14</v>
@@ -13426,7 +13760,7 @@
         <v>91</v>
       </c>
       <c r="Y56" s="56" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -13437,7 +13771,7 @@
         <v>147</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D57" s="11">
         <v>15</v>
@@ -13506,7 +13840,7 @@
         <v>147</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D58" s="11">
         <v>16</v>
@@ -13569,7 +13903,7 @@
         <v>147</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D59" s="11">
         <v>17</v>
@@ -13625,7 +13959,7 @@
         <v>91</v>
       </c>
       <c r="Y59" s="56" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -13636,7 +13970,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D60" s="11">
         <v>17</v>
@@ -13705,7 +14039,7 @@
         <v>147</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D61" s="11">
         <v>19</v>
@@ -13774,7 +14108,7 @@
         <v>147</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D62" s="11">
         <v>20</v>
@@ -13835,7 +14169,7 @@
         <v>147</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D63" s="11">
         <v>22</v>
@@ -13891,7 +14225,7 @@
         <v>104</v>
       </c>
       <c r="Y63" s="56" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -13902,7 +14236,7 @@
         <v>147</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D64" s="11">
         <v>23</v>
@@ -13970,7 +14304,7 @@
         <v>147</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D65" s="11">
         <v>24</v>
@@ -14039,7 +14373,7 @@
         <v>147</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D66" s="11">
         <v>24</v>
@@ -14095,7 +14429,7 @@
         <v>91</v>
       </c>
       <c r="Y66" s="56" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -14106,7 +14440,7 @@
         <v>147</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D67" s="11">
         <v>25</v>
@@ -14171,7 +14505,7 @@
         <v>147</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D68" s="11">
         <v>26</v>
@@ -14240,7 +14574,7 @@
         <v>147</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D69" s="11">
         <v>27</v>
@@ -14296,7 +14630,7 @@
         <v>91</v>
       </c>
       <c r="Y69" s="56" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -14307,7 +14641,7 @@
         <v>147</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D70" s="11">
         <v>30</v>
@@ -14367,7 +14701,7 @@
         <v>91</v>
       </c>
       <c r="Y70" s="56" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -14378,7 +14712,7 @@
         <v>147</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D71" s="11">
         <v>33</v>
@@ -14446,7 +14780,7 @@
         <v>147</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D72" s="11">
         <v>35</v>
@@ -14462,7 +14796,7 @@
         <v>25</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="J72" s="18"/>
       <c r="K72" s="20">
@@ -14514,7 +14848,7 @@
         <v>147</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D73" s="11">
         <v>37</v>
@@ -14570,7 +14904,7 @@
         <v>67</v>
       </c>
       <c r="Y73" s="56" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -14581,7 +14915,7 @@
         <v>147</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D74" s="11">
         <v>38</v>
@@ -14637,7 +14971,7 @@
         <v>104</v>
       </c>
       <c r="Y74" s="56" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -14648,7 +14982,7 @@
         <v>147</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D75" s="11">
         <v>41</v>
@@ -14708,7 +15042,7 @@
         <v>91</v>
       </c>
       <c r="Y75" s="56" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -14719,7 +15053,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D76" s="11">
         <v>45</v>
@@ -14775,7 +15109,7 @@
         <v>104</v>
       </c>
       <c r="Y76" s="56" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -14786,7 +15120,7 @@
         <v>147</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D77" s="11">
         <v>46</v>
@@ -14842,7 +15176,7 @@
         <v>67</v>
       </c>
       <c r="Y77" s="56" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -14853,7 +15187,7 @@
         <v>147</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D78" s="11">
         <v>48</v>
@@ -14922,7 +15256,7 @@
         <v>147</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D79" s="11">
         <v>49</v>
@@ -14987,7 +15321,7 @@
         <v>147</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D80" s="11">
         <v>51</v>
@@ -15043,7 +15377,7 @@
         <v>79</v>
       </c>
       <c r="Y80" s="56" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -15054,7 +15388,7 @@
         <v>147</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D81" s="11">
         <v>53</v>
@@ -15121,7 +15455,7 @@
         <v>147</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D82" s="11">
         <v>53</v>
@@ -15177,7 +15511,7 @@
         <v>67</v>
       </c>
       <c r="Y82" s="56" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -15188,7 +15522,7 @@
         <v>147</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D83" s="11">
         <v>56</v>
@@ -15251,7 +15585,7 @@
         <v>147</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D84" s="11">
         <v>66</v>
@@ -15307,7 +15641,7 @@
         <v>67</v>
       </c>
       <c r="Y84" s="56" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -15318,7 +15652,7 @@
         <v>147</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D85" s="11">
         <v>68</v>
@@ -15383,7 +15717,7 @@
         <v>147</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D86" s="11">
         <v>70</v>
@@ -15448,7 +15782,7 @@
         <v>147</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D87" s="11">
         <v>70</v>
@@ -15511,7 +15845,7 @@
         <v>147</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D88" s="11">
         <v>73</v>
@@ -15567,7 +15901,7 @@
         <v>98</v>
       </c>
       <c r="Y88" s="56" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -15578,7 +15912,7 @@
         <v>147</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D89" s="11">
         <v>75</v>
@@ -15643,7 +15977,7 @@
         <v>147</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D90" s="11">
         <v>76</v>
@@ -15699,7 +16033,7 @@
         <v>67</v>
       </c>
       <c r="Y90" s="56" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -15710,7 +16044,7 @@
         <v>147</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D91" s="11">
         <v>77</v>
@@ -15766,7 +16100,7 @@
         <v>67</v>
       </c>
       <c r="Y91" s="56" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -15777,7 +16111,7 @@
         <v>147</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D92" s="11">
         <v>79</v>
@@ -15842,7 +16176,7 @@
         <v>147</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D93" s="11">
         <v>82</v>
@@ -16090,7 +16424,7 @@
         <v>104</v>
       </c>
       <c r="Y96" s="56" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -16157,7 +16491,7 @@
         <v>67</v>
       </c>
       <c r="Y97" s="56" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -16224,7 +16558,7 @@
         <v>98</v>
       </c>
       <c r="Y98" s="56" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -16295,7 +16629,7 @@
         <v>104</v>
       </c>
       <c r="Y99" s="56" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -16427,7 +16761,7 @@
         <v>67</v>
       </c>
       <c r="Y101" s="56" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -16448,7 +16782,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16478,13 +16812,13 @@
         <v>233</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>33</v>
@@ -16504,7 +16838,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G2" s="70">
         <v>3</v>
@@ -16527,7 +16861,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G3" s="70">
         <v>4</v>
@@ -16550,7 +16884,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
@@ -16576,10 +16910,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="G5" s="70">
         <v>9</v>
@@ -16602,10 +16936,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="G6" s="70">
         <v>24</v>
@@ -16628,7 +16962,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -16654,10 +16988,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G8" s="70">
         <v>9</v>
@@ -16685,7 +17019,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C32" sqref="C32"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16721,13 +17055,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
@@ -16758,10 +17092,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -16776,10 +17110,10 @@
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="71" t="s">
         <v>437</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -16794,10 +17128,10 @@
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -16814,10 +17148,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -16832,10 +17166,10 @@
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -16850,15 +17184,15 @@
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
         <v>97</v>
@@ -16870,15 +17204,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
@@ -16888,17 +17222,17 @@
       </c>
       <c r="D9" s="69"/>
       <c r="E9" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
         <v>97</v>
@@ -16908,10 +17242,10 @@
       </c>
       <c r="D10" s="69"/>
       <c r="E10" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -16930,10 +17264,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -16948,10 +17282,10 @@
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F12" s="71" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -16966,10 +17300,10 @@
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F13" s="71" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -16984,10 +17318,10 @@
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -17002,10 +17336,10 @@
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="34" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F15" s="71" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -17020,10 +17354,10 @@
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="34" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="F16" s="71" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -17038,10 +17372,10 @@
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F17" s="71" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -17058,10 +17392,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F18" s="71" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -17076,10 +17410,10 @@
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F19" s="71" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -17094,10 +17428,10 @@
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F20" s="71" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -17112,10 +17446,10 @@
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F21" s="71" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -17130,10 +17464,10 @@
       </c>
       <c r="D22" s="70"/>
       <c r="E22" s="34" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -17148,10 +17482,10 @@
       </c>
       <c r="D23" s="70"/>
       <c r="E23" s="34" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -17166,10 +17500,10 @@
       </c>
       <c r="D24" s="70"/>
       <c r="E24" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F24" s="71" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -17186,10 +17520,10 @@
         <v>18</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -17204,10 +17538,10 @@
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>399</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -17222,10 +17556,10 @@
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" s="71" t="s">
         <v>438</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -17240,10 +17574,10 @@
       </c>
       <c r="D28" s="70"/>
       <c r="E28" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F28" s="71" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -17258,10 +17592,10 @@
       </c>
       <c r="D29" s="70"/>
       <c r="E29" s="34" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F29" s="71" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -17276,10 +17610,10 @@
       </c>
       <c r="D30" s="70"/>
       <c r="E30" s="34" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="F30" s="71" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -17294,10 +17628,10 @@
       </c>
       <c r="D31" s="70"/>
       <c r="E31" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F31" s="71" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -17312,10 +17646,10 @@
       </c>
       <c r="D32" s="70"/>
       <c r="E32" s="34" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="F32" s="71" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -17330,10 +17664,10 @@
       </c>
       <c r="D33" s="70"/>
       <c r="E33" s="34" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F33" s="71" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -17348,10 +17682,10 @@
       </c>
       <c r="D34" s="70"/>
       <c r="E34" s="34" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="F34" s="71" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -17368,10 +17702,10 @@
         <v>9</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F35" s="71" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -17386,10 +17720,10 @@
       </c>
       <c r="D36" s="70"/>
       <c r="E36" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F36" s="71" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -17404,10 +17738,10 @@
       </c>
       <c r="D37" s="70"/>
       <c r="E37" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F37" s="71" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -17422,10 +17756,10 @@
       </c>
       <c r="D38" s="70"/>
       <c r="E38" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F38" s="71" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -17440,10 +17774,10 @@
       </c>
       <c r="D39" s="70"/>
       <c r="E39" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="F39" s="71" t="s">
         <v>440</v>
-      </c>
-      <c r="F39" s="71" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -17458,10 +17792,10 @@
       </c>
       <c r="D40" s="70"/>
       <c r="E40" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="F40" s="71" t="s">
         <v>441</v>
-      </c>
-      <c r="F40" s="71" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -17476,10 +17810,10 @@
       </c>
       <c r="D41" s="70"/>
       <c r="E41" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F41" s="71" t="s">
-        <v>286</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -17494,10 +17828,10 @@
       </c>
       <c r="D42" s="70"/>
       <c r="E42" s="34" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="F42" s="71" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -17512,10 +17846,10 @@
       </c>
       <c r="D43" s="70"/>
       <c r="E43" s="34" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F43" s="71" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -17532,10 +17866,10 @@
         <v>24</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F44" s="71" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -17550,10 +17884,10 @@
       </c>
       <c r="D45" s="70"/>
       <c r="E45" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F45" s="71" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -17568,10 +17902,10 @@
       </c>
       <c r="D46" s="70"/>
       <c r="E46" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F46" s="71" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -17586,10 +17920,10 @@
       </c>
       <c r="D47" s="70"/>
       <c r="E47" s="34" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F47" s="71" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -17604,10 +17938,10 @@
       </c>
       <c r="D48" s="70"/>
       <c r="E48" s="34" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="F48" s="71" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -17622,10 +17956,10 @@
       </c>
       <c r="D49" s="70"/>
       <c r="E49" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F49" s="71" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -17640,10 +17974,10 @@
       </c>
       <c r="D50" s="70"/>
       <c r="E50" s="34" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="F50" s="71" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -17658,10 +17992,10 @@
       </c>
       <c r="D51" s="70"/>
       <c r="E51" s="34" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -17676,10 +18010,10 @@
       </c>
       <c r="D52" s="70"/>
       <c r="E52" s="34" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -17694,10 +18028,10 @@
       </c>
       <c r="D53" s="70"/>
       <c r="E53" s="34" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="F53" s="71" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -17712,10 +18046,10 @@
       </c>
       <c r="D54" s="70"/>
       <c r="E54" s="34" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="F54" s="71" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -17732,10 +18066,10 @@
         <v>9</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -17750,10 +18084,10 @@
       </c>
       <c r="D56" s="70"/>
       <c r="E56" s="32" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -17768,10 +18102,10 @@
       </c>
       <c r="D57" s="70"/>
       <c r="E57" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -17786,10 +18120,10 @@
       </c>
       <c r="D58" s="70"/>
       <c r="E58" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -17804,10 +18138,10 @@
       </c>
       <c r="D59" s="70"/>
       <c r="E59" s="34" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F59" s="71" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -17822,10 +18156,10 @@
       </c>
       <c r="D60" s="70"/>
       <c r="E60" s="34" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="F60" s="71" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -17840,10 +18174,10 @@
       </c>
       <c r="D61" s="70"/>
       <c r="E61" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -17858,10 +18192,10 @@
       </c>
       <c r="D62" s="70"/>
       <c r="E62" s="34" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -17876,10 +18210,10 @@
       </c>
       <c r="D63" s="70"/>
       <c r="E63" s="34" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="F63" s="71" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -17896,10 +18230,10 @@
         <v>9</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="F64" s="71" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -17914,10 +18248,10 @@
       </c>
       <c r="D65" s="69"/>
       <c r="E65" s="32" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="F65" s="71" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -17932,10 +18266,10 @@
       </c>
       <c r="D66" s="69"/>
       <c r="E66" s="34" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="F66" s="71" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -17950,10 +18284,10 @@
       </c>
       <c r="D67" s="69"/>
       <c r="E67" s="34" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="F67" s="71" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -17968,10 +18302,10 @@
       </c>
       <c r="D68" s="69"/>
       <c r="E68" s="34" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="F68" s="71" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -17986,10 +18320,10 @@
       </c>
       <c r="D69" s="69"/>
       <c r="E69" s="34" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="F69" s="71" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -18008,10 +18342,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A15" sqref="A15:XFD42"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18034,13 +18368,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="G1" s="45"/>
       <c r="H1" s="45"/>
@@ -18064,10 +18398,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="G2" s="71"/>
     </row>
@@ -18085,10 +18419,10 @@
         <v>24</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="G3" s="71"/>
     </row>
@@ -18104,10 +18438,10 @@
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="30" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="G4" s="71"/>
     </row>
@@ -18128,7 +18462,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18197,7 +18531,7 @@
         <v>16</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>35</v>
@@ -18212,142 +18546,152 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>291</v>
+        <v>3</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="41">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>7873432</v>
+        <v>9090551</v>
       </c>
       <c r="M2" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="44" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>9090551</v>
+        <v>9217619</v>
       </c>
       <c r="M3" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>336</v>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4">
+        <v>7817268</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="41">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>4591610</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="R4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>147</v>
@@ -18356,36 +18700,36 @@
         <v>3</v>
       </c>
       <c r="J5" s="41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>9217619</v>
+        <v>8954326</v>
       </c>
       <c r="M5" t="s">
         <v>2</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>313</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>147</v>
@@ -18394,36 +18738,36 @@
         <v>3</v>
       </c>
       <c r="J6" s="41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>1076255</v>
+        <v>8188514</v>
       </c>
       <c r="M6" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P6" s="30" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>147</v>
@@ -18432,77 +18776,74 @@
         <v>3</v>
       </c>
       <c r="J7" s="41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>4532187</v>
+        <v>9031051</v>
       </c>
       <c r="M7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>327</v>
+        <v>3</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>8954326</v>
+        <v>9428512</v>
       </c>
       <c r="M8" t="s">
         <v>2</v>
       </c>
       <c r="O8" s="44" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>147</v>
@@ -18511,180 +18852,181 @@
         <v>3</v>
       </c>
       <c r="J9" s="41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>9031051</v>
+        <v>1076255</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>311</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>192</v>
+      <c r="E10" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="41">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>8188514</v>
+        <v>7834321</v>
       </c>
       <c r="M10" t="s">
         <v>2</v>
       </c>
       <c r="O10" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>317</v>
+        <v>296</v>
+      </c>
+      <c r="P10" s="71" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="K11">
+        <v>8723658</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="41">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>9428512</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="R11" t="s">
         <v>2</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>147</v>
       </c>
       <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="41">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4591610</v>
+      </c>
+      <c r="M12" t="s">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="K12">
-        <v>8723658</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>62</v>
-      </c>
       <c r="O12" s="44" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="R12" t="s">
-        <v>2</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K13">
-        <v>6271627</v>
+        <v>7169188</v>
       </c>
       <c r="L13" t="s">
         <v>63</v>
@@ -18693,13 +19035,13 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="R13" t="s">
         <v>2</v>
@@ -18707,19 +19049,19 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>118</v>
@@ -18728,28 +19070,28 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="K14">
-        <v>7817268</v>
+        <v>6271627</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="O14" s="44" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="R14" t="s">
         <v>2</v>
@@ -18757,131 +19099,126 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>23</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>308</v>
+      <c r="J15" s="41">
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>7169188</v>
-      </c>
-      <c r="L15" t="s">
-        <v>63</v>
+        <v>7873432</v>
       </c>
       <c r="M15" t="s">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
-        <v>62</v>
-      </c>
       <c r="O15" s="44" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="R15" t="s">
-        <v>2</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="31">
+        <v>29230030071</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
       <c r="J16" s="41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16">
-        <v>7834321</v>
+        <v>6543213</v>
       </c>
       <c r="M16" t="s">
         <v>2</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>448</v>
+        <v>296</v>
+      </c>
+      <c r="P16" s="71" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="30" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="31">
-        <v>29230030071</v>
+      <c r="E17" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>147</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>6543213</v>
+        <v>4532187</v>
       </c>
       <c r="M17" t="s">
         <v>2</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:R17">
+    <sortCondition ref="E1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -18897,8 +19234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18914,7 +19251,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28">
       <c r="A1" s="43" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -18949,219 +19286,219 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="44" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E2" s="46">
         <v>1</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I2">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="44" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E3" s="46">
         <v>1</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I3">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J3">
         <v>80</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="44" t="s">
-        <v>294</v>
-      </c>
+      <c r="A4" s="44"/>
       <c r="B4" s="18" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E4" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I4">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K4">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="44"/>
-      <c r="B5" s="18" t="s">
-        <v>148</v>
+      <c r="A5" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E5" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="I5">
         <v>120</v>
       </c>
       <c r="J5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>0</v>
+      <c r="A6" s="44"/>
+      <c r="B6" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E6" s="46">
-        <v>1</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>318</v>
+        <v>2</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>396</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I6">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="44"/>
+      <c r="A7" s="44" t="s">
+        <v>292</v>
+      </c>
       <c r="B7" s="18" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E7" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I7">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="44" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>147</v>
@@ -19170,31 +19507,31 @@
         <v>1</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I8">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J8">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="44"/>
       <c r="B9" s="18" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>147</v>
@@ -19203,33 +19540,33 @@
         <v>2</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="I9">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J9">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="44" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>147</v>
@@ -19238,13 +19575,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I10">
         <v>120</v>
@@ -19253,53 +19590,53 @@
         <v>80</v>
       </c>
       <c r="K10">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="44" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="G11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I11">
         <v>110</v>
       </c>
       <c r="J11">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>147</v>
@@ -19308,533 +19645,537 @@
         <v>1</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>323</v>
+        <v>402</v>
       </c>
       <c r="G12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I12">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J12">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="44" t="s">
-        <v>299</v>
-      </c>
+      <c r="A13" s="44"/>
       <c r="B13" s="18" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>332</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="I13">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="44"/>
-      <c r="B14" s="18" t="s">
-        <v>192</v>
+      <c r="A14" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14">
+        <v>120</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="44"/>
+      <c r="B15" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="46">
         <v>2</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14">
+      <c r="F15" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15">
         <v>125</v>
       </c>
-      <c r="J14">
-        <v>75</v>
-      </c>
-      <c r="K14">
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="46">
-        <v>1</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="G15" t="s">
-        <v>281</v>
-      </c>
-      <c r="H15" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15">
-        <v>110</v>
-      </c>
-      <c r="J15">
-        <v>75</v>
-      </c>
-      <c r="K15">
-        <v>46</v>
-      </c>
-    </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="44" t="s">
-        <v>301</v>
-      </c>
+      <c r="A16" s="44"/>
       <c r="B16" s="38" t="s">
         <v>173</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E16" s="46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="I16">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="44"/>
-      <c r="B17" s="38" t="s">
-        <v>173</v>
+      <c r="A17" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="I17">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="44"/>
-      <c r="B18" s="38" t="s">
-        <v>173</v>
+      <c r="B18" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E18" s="46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>250</v>
+        <v>409</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I18">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J18">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K18">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="E19" s="46">
         <v>1</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I19">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J19">
         <v>80</v>
       </c>
       <c r="K19">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="44"/>
       <c r="B20" s="38" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="E20" s="46">
         <v>2</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I20">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J20">
         <v>80</v>
       </c>
       <c r="K20">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="44"/>
       <c r="B21" s="38" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>290</v>
+        <v>69</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="E21" s="46">
         <v>3</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="G21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="I21">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J21">
         <v>80</v>
       </c>
       <c r="K21">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="44"/>
+      <c r="A22" s="44" t="s">
+        <v>296</v>
+      </c>
       <c r="B22" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E22" s="46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="G22" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="I22">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J22">
         <v>80</v>
       </c>
       <c r="K22">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="44" t="s">
-        <v>303</v>
-      </c>
+      <c r="A23" s="44"/>
       <c r="B23" s="38" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E23" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="G23" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="I23">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J23">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K23">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="44"/>
       <c r="B24" s="38" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" t="s">
+        <v>307</v>
+      </c>
+      <c r="I24">
+        <v>120</v>
+      </c>
+      <c r="J24">
+        <v>80</v>
+      </c>
+      <c r="K24">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="44"/>
+      <c r="B25" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="H24" t="s">
-        <v>282</v>
-      </c>
-      <c r="I24">
-        <v>115</v>
-      </c>
-      <c r="J24">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>262</v>
-      </c>
       <c r="C25" s="23" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="E25" s="46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="I25">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J25">
         <v>80</v>
       </c>
       <c r="K25">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="44"/>
-      <c r="B26" s="38" t="s">
-        <v>262</v>
+      <c r="A26" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="E26" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
       <c r="G26" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="I26">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J26">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K26">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="44"/>
-      <c r="B27" s="38" t="s">
-        <v>262</v>
+      <c r="A27" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="E27" s="46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="G27" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H27" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="I27">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J27">
         <v>80</v>
       </c>
       <c r="K27">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K27">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -19846,10 +20187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19865,7 +20206,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="15" customFormat="1">
       <c r="A1" s="43" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -19883,12 +20224,12 @@
         <v>50</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="44" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>120</v>
@@ -19900,18 +20241,18 @@
         <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>148</v>
@@ -19923,13 +20264,13 @@
         <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -19944,18 +20285,18 @@
         <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>0</v>
@@ -19967,18 +20308,18 @@
         <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="44" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>154</v>
@@ -19990,42 +20331,40 @@
         <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="44" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="44" t="s">
-        <v>298</v>
-      </c>
+      <c r="A8" s="44"/>
       <c r="B8" s="18" t="s">
         <v>177</v>
       </c>
@@ -20036,34 +20375,36 @@
         <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="44"/>
+      <c r="A9" s="44" t="s">
+        <v>287</v>
+      </c>
       <c r="B9" s="18" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -20071,208 +20412,206 @@
         <v>293</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
-        <v>299</v>
-      </c>
+      <c r="A11" s="44"/>
       <c r="B11" s="18" t="s">
         <v>192</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
       <c r="G11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="44"/>
+      <c r="A12" s="44" t="s">
+        <v>294</v>
+      </c>
       <c r="B12" s="18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="G12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>222</v>
+        <v>295</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="G13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="44" t="s">
-        <v>301</v>
-      </c>
+      <c r="A14" s="44"/>
       <c r="B14" s="38" t="s">
         <v>173</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="G14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="44"/>
-      <c r="B15" s="38" t="s">
-        <v>173</v>
-      </c>
       <c r="C15" s="23" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="44"/>
+      <c r="B16" s="38" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="44" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>287</v>
-      </c>
       <c r="C16" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="44"/>
+      <c r="A17" s="44" t="s">
+        <v>297</v>
+      </c>
       <c r="B17" s="38" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="44" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="G18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="44" t="s">
-        <v>304</v>
-      </c>
+      <c r="A19" s="44"/>
       <c r="B19" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>69</v>
@@ -20281,34 +20620,13 @@
         <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>317</v>
+        <v>412</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="44"/>
-      <c r="B20" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -20328,7 +20646,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20344,7 +20662,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="15" customFormat="1" ht="28">
       <c r="A1" s="43" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -20370,7 +20688,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="44" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>120</v>
@@ -20382,10 +20700,10 @@
         <v>118</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G2">
         <v>11.1</v>
@@ -20396,7 +20714,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>148</v>
@@ -20408,10 +20726,10 @@
         <v>147</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G3">
         <v>11.9</v>
@@ -20422,7 +20740,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>0</v>
@@ -20434,10 +20752,10 @@
         <v>147</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G4">
         <v>6.2</v>
@@ -20458,10 +20776,10 @@
         <v>147</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G5">
         <v>6.9</v>
@@ -20472,7 +20790,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="44" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>154</v>
@@ -20484,10 +20802,10 @@
         <v>147</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G6">
         <v>12.3</v>
@@ -20498,7 +20816,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="44" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>177</v>
@@ -20510,10 +20828,10 @@
         <v>147</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G7">
         <v>9.5</v>
@@ -20534,10 +20852,10 @@
         <v>147</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -20548,22 +20866,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="44" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>192</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G9">
         <v>12.1</v>
@@ -20574,7 +20892,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="44" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>195</v>
@@ -20586,10 +20904,10 @@
         <v>220</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G10">
         <v>11.8</v>
@@ -20600,22 +20918,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="44" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>173</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G11">
         <v>7.8</v>
@@ -20630,16 +20948,16 @@
         <v>173</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G12">
         <v>9.3000000000000007</v>
@@ -20654,16 +20972,16 @@
         <v>173</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G13">
         <v>11</v>
@@ -20674,22 +20992,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="44" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="F14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G14">
         <v>6.9</v>
@@ -20701,19 +21019,19 @@
     <row r="15" spans="1:8">
       <c r="A15" s="44"/>
       <c r="B15" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="F15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G15">
         <v>8.3000000000000007</v>
@@ -20725,19 +21043,19 @@
     <row r="16" spans="1:8">
       <c r="A16" s="44"/>
       <c r="B16" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G16">
         <v>11.3</v>
@@ -20748,7 +21066,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="44" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>209</v>
@@ -20760,10 +21078,10 @@
         <v>118</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G17">
         <v>8.4</v>
@@ -20784,10 +21102,10 @@
         <v>118</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -20808,10 +21126,10 @@
         <v>118</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>328</v>
+        <v>410</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G19">
         <v>11.1</v>
@@ -20822,10 +21140,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="44" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>69</v>
@@ -20834,10 +21152,10 @@
         <v>220</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
       <c r="F20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G20">
         <v>9.9</v>
@@ -20849,7 +21167,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="44"/>
       <c r="B21" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>69</v>
@@ -20858,10 +21176,10 @@
         <v>220</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G21">
         <v>12.5</v>
@@ -20887,7 +21205,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20902,7 +21220,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1">
       <c r="A1" s="43" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -20922,7 +21240,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>120</v>
@@ -20937,12 +21255,12 @@
         <v>30</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="44" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>148</v>
@@ -20957,7 +21275,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -20975,12 +21293,12 @@
         <v>30</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="44" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>0</v>
@@ -20995,7 +21313,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21013,7 +21331,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21031,12 +21349,12 @@
         <v>60</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="44" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>154</v>
@@ -21051,7 +21369,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21069,7 +21387,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21087,12 +21405,12 @@
         <v>30</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>332</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="44" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>177</v>
@@ -21107,7 +21425,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21125,18 +21443,18 @@
         <v>60</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="44" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>192</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>147</v>
@@ -21145,12 +21463,12 @@
         <v>30</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="44" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>195</v>
@@ -21165,18 +21483,18 @@
         <v>30</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="44" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>173</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>147</v>
@@ -21185,7 +21503,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21194,7 +21512,7 @@
         <v>173</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>147</v>
@@ -21203,7 +21521,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>312</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -21212,7 +21530,7 @@
         <v>173</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>147</v>
@@ -21221,18 +21539,18 @@
         <v>60</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="44" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>118</v>
@@ -21241,16 +21559,16 @@
         <v>60</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="44"/>
       <c r="B19" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>118</v>
@@ -21259,16 +21577,16 @@
         <v>60</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="44"/>
       <c r="B20" s="38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>118</v>
@@ -21277,12 +21595,12 @@
         <v>60</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="44" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>209</v>
@@ -21297,7 +21615,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21315,7 +21633,7 @@
         <v>60</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21333,15 +21651,15 @@
         <v>60</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="44" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>69</v>
@@ -21353,13 +21671,13 @@
         <v>60</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="44"/>
       <c r="B25" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>69</v>
@@ -21371,7 +21689,7 @@
         <v>60</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -21390,8 +21708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21466,14 +21784,14 @@
         <v>235</v>
       </c>
       <c r="U1" s="26" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="8"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="30" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>132</v>
@@ -21491,25 +21809,25 @@
         <v>3</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N2" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R2">
         <v>2.8</v>
@@ -21526,7 +21844,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="30" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>112</v>
@@ -21544,20 +21862,20 @@
         <v>3</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O3" s="25"/>
       <c r="P3" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q3" t="s">
         <v>272</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>274</v>
       </c>
       <c r="R3">
         <v>1.9</v>
@@ -21574,13 +21892,13 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="30" t="s">
-        <v>250</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="31">
         <v>29230030071</v>
@@ -21604,19 +21922,19 @@
         <v>7876545</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O4" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="P4" s="32" t="s">
-        <v>273</v>
       </c>
       <c r="U4" t="s">
         <v>2</v>
@@ -21624,7 +21942,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="30" t="s">
-        <v>251</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -21654,19 +21972,19 @@
         <v>8212456</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -21682,11 +22000,11 @@
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="30" t="s">
-        <v>251</v>
+      <c r="A6" s="33" t="s">
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -21713,19 +22031,19 @@
         <v>6787688</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P6" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q6" t="s">
         <v>272</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>274</v>
       </c>
       <c r="R6">
         <v>3.1</v>
@@ -21741,14 +22059,14 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="30" t="s">
-        <v>248</v>
+      <c r="A7" s="33" t="s">
+        <v>409</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>57</v>
@@ -21772,22 +22090,22 @@
         <v>9191821</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="P7" s="25" t="s">
-        <v>272</v>
-      </c>
       <c r="Q7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R7">
         <v>2.2999999999999998</v>
@@ -21803,14 +22121,14 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="30" t="s">
-        <v>249</v>
+      <c r="A8" s="33" t="s">
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>57</v>
@@ -21834,19 +22152,19 @@
         <v>7128398</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R8">
         <v>2.8</v>
@@ -21878,7 +22196,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21915,7 +22233,7 @@
         <v>243</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -21933,12 +22251,12 @@
         <v>67</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>97</v>
@@ -21950,21 +22268,21 @@
         <v>91</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>57</v>
@@ -21973,7 +22291,7 @@
         <v>67</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -21981,7 +22299,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="31">
         <v>29230030071</v>
@@ -21990,7 +22308,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -22013,7 +22331,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22053,7 +22371,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="51" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>132</v>
@@ -22066,13 +22384,13 @@
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -22088,13 +22406,13 @@
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>254</v>
-      </c>
       <c r="H3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -22110,18 +22428,18 @@
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="51" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>112</v>
@@ -22133,16 +22451,16 @@
         <v>29230030071</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -22158,13 +22476,13 @@
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -22180,13 +22498,13 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -22202,13 +22520,13 @@
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -22224,13 +22542,13 @@
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" t="s">
         <v>278</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -22246,13 +22564,13 @@
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -22268,39 +22586,39 @@
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="51" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="31">
         <v>29230030071</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -22309,19 +22627,19 @@
         <v>95</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="31">
         <v>29230030071</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>277</v>
+        <v>431</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -22330,25 +22648,25 @@
         <v>95</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="31">
         <v>29230030071</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="51" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -22360,16 +22678,16 @@
         <v>29230030071</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -22385,87 +22703,87 @@
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="52" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="52"/>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="52" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>280</v>
+        <v>435</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -22474,20 +22792,20 @@
         <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
-        <v>248</v>
+        <v>436</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -22496,19 +22814,19 @@
         <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
